--- a/nodes_source_analyses/households/households_space_heater_network_gas.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_network_gas.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -284,9 +292,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -469,16 +474,20 @@
   <si>
     <t>http://refman.et-model.com/publications/1983</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,11 +668,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1317,7 +1321,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1328,40 +1332,40 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1386,10 +1390,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1419,7 +1423,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1432,11 +1436,11 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1448,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1468,11 +1472,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1505,31 +1509,31 @@
     <xf numFmtId="2" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1790,80 +1794,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2019,7 +1958,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2456,52 +2395,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2510,29 +2449,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="90" t="s">
         <v>67</v>
@@ -2541,33 +2480,33 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="90"/>
       <c r="C12" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="90" t="s">
         <v>72</v>
@@ -2576,49 +2515,49 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>80</v>
@@ -2627,49 +2566,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="150" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C2" s="151"/>
       <c r="D2" s="151"/>
@@ -2677,7 +2611,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="153"/>
       <c r="C3" s="154"/>
       <c r="D3" s="154"/>
@@ -2685,7 +2619,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="156"/>
       <c r="C4" s="157"/>
       <c r="D4" s="157"/>
@@ -2693,10 +2627,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2707,7 +2641,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2728,7 +2662,7 @@
       </c>
       <c r="J7" s="109"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2739,10 +2673,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2752,10 +2686,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="130" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2768,11 +2702,11 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>32</v>
@@ -2792,7 +2726,7 @@
       <c r="J11" s="110"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -2812,7 +2746,7 @@
       <c r="J12" s="110"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
@@ -2832,7 +2766,7 @@
       <c r="J13" s="110"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -2852,7 +2786,7 @@
       <c r="J14" s="110"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>38</v>
@@ -2872,7 +2806,7 @@
       <c r="J15" s="110"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>39</v>
@@ -2893,7 +2827,7 @@
       </c>
       <c r="J16" s="110"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>40</v>
@@ -2915,7 +2849,7 @@
       </c>
       <c r="J17" s="110"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="84"/>
       <c r="D18" s="106"/>
@@ -2926,10 +2860,10 @@
       <c r="I18" s="32"/>
       <c r="J18" s="110"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="107"/>
@@ -2939,7 +2873,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="110"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>41</v>
@@ -2957,11 +2891,11 @@
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J20" s="110"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>42</v>
@@ -2982,7 +2916,7 @@
       </c>
       <c r="J21" s="110"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -3003,7 +2937,7 @@
       </c>
       <c r="J22" s="110"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>43</v>
@@ -3024,7 +2958,7 @@
       </c>
       <c r="J23" s="110"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>44</v>
@@ -3042,11 +2976,11 @@
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" s="110"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>45</v>
@@ -3067,7 +3001,7 @@
       </c>
       <c r="J25" s="110"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>46</v>
@@ -3088,7 +3022,7 @@
       </c>
       <c r="J26" s="110"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3109,7 +3043,7 @@
       </c>
       <c r="J27" s="110"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>36</v>
@@ -3128,7 +3062,7 @@
       </c>
       <c r="J28" s="110"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="37"/>
       <c r="C29" s="33"/>
       <c r="D29" s="19"/>
@@ -3139,7 +3073,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="110"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="14" t="s">
         <v>7</v>
@@ -3152,7 +3086,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="110"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>35</v>
@@ -3173,7 +3107,7 @@
       </c>
       <c r="J31" s="110"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>47</v>
@@ -3194,7 +3128,7 @@
       </c>
       <c r="J32" s="110"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>48</v>
@@ -3212,11 +3146,11 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J33" s="110"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>33</v>
@@ -3235,7 +3169,7 @@
       </c>
       <c r="J34" s="110"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="45" t="s">
         <v>59</v>
@@ -3252,7 +3186,7 @@
       </c>
       <c r="J35" s="110"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>60</v>
@@ -3269,7 +3203,7 @@
       </c>
       <c r="J36" s="110"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>62</v>
@@ -3286,7 +3220,7 @@
       </c>
       <c r="J37" s="110"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>63</v>
@@ -3303,7 +3237,7 @@
       </c>
       <c r="J38" s="110"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>61</v>
@@ -3320,7 +3254,7 @@
       </c>
       <c r="J39" s="110"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -3337,43 +3271,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3388,28 +3285,27 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="68" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="68" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="68" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="68" customWidth="1"/>
-    <col min="8" max="8" width="3.625" style="68" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="69" customWidth="1"/>
-    <col min="10" max="10" width="2.75" style="69" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="69" customWidth="1"/>
-    <col min="12" max="12" width="2.25" style="69" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="69" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="69" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="68" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="68" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="68" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="68" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="68" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="69" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="69" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="69" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="69" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="69" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="69" customWidth="1"/>
     <col min="15" max="15" width="82" style="68" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="68"/>
+    <col min="16" max="16384" width="10.7109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -3425,10 +3321,10 @@
       <c r="N2" s="72"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="113" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3440,22 +3336,22 @@
       </c>
       <c r="H3" s="113"/>
       <c r="I3" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="113" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -3471,10 +3367,10 @@
       <c r="N4" s="112"/>
       <c r="O4" s="134"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="73"/>
       <c r="C5" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3489,10 +3385,10 @@
       <c r="N5" s="10"/>
       <c r="O5" s="67"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="73"/>
       <c r="C6" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
@@ -3511,10 +3407,10 @@
       <c r="N6" s="75"/>
       <c r="O6" s="67"/>
     </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1">
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="73"/>
       <c r="C7" s="133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="76"/>
       <c r="E7" s="76"/>
@@ -3537,7 +3433,7 @@
       <c r="N7" s="75"/>
       <c r="O7" s="87"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -3553,7 +3449,7 @@
       <c r="N8" s="81"/>
       <c r="O8" s="114"/>
     </row>
-    <row r="9" spans="2:15" ht="16" thickBot="1">
+    <row r="9" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="73"/>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3571,7 +3467,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1">
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="73"/>
       <c r="C10" s="85" t="s">
         <v>5</v>
@@ -3597,7 +3493,7 @@
       <c r="N10" s="82"/>
       <c r="O10" s="119"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="73"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3612,13 +3508,13 @@
       <c r="M11" s="82"/>
       <c r="N11" s="82"/>
       <c r="O11" s="140" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="16" thickBot="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="73"/>
       <c r="C12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -3632,13 +3528,13 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="16" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="73"/>
       <c r="C13" s="111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3660,13 +3556,13 @@
       <c r="M13" s="81"/>
       <c r="N13" s="81"/>
       <c r="O13" s="141" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="73"/>
       <c r="C14" s="118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -3695,11 +3591,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3714,22 +3605,22 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="32.375" style="47" customWidth="1"/>
-    <col min="11" max="11" width="125.125" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="125.140625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3741,7 +3632,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>21</v>
@@ -3755,7 +3646,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3767,7 +3658,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>28</v>
@@ -3783,19 +3674,19 @@
         <v>29</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3807,12 +3698,12 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="59"/>
       <c r="D7" s="64"/>
       <c r="E7" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="62"/>
@@ -3821,47 +3712,47 @@
       <c r="J7" s="62"/>
       <c r="K7" s="59"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="59"/>
       <c r="F8" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="59"/>
       <c r="F9" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
       <c r="I9" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="64"/>
@@ -3873,30 +3764,30 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="62"/>
       <c r="H11" s="62"/>
       <c r="I11" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="59"/>
@@ -3907,7 +3798,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="60"/>
       <c r="D13" s="64"/>
@@ -3918,31 +3809,31 @@
       <c r="J13" s="62"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="60"/>
       <c r="D14" s="64"/>
       <c r="E14" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" s="63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="142" t="s">
         <v>5</v>
@@ -3964,11 +3855,6 @@
   <ignoredErrors>
     <ignoredError sqref="G14:H14" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3983,18 +3869,18 @@
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="122" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="122" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="122" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="122" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="122" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="122"/>
+    <col min="1" max="1" width="3.5703125" style="122" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="122" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="122" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="122" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="16" thickBot="1"/>
-    <row r="3" spans="2:12">
+    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="123"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4007,13 +3893,13 @@
       <c r="K3" s="16"/>
       <c r="L3" s="124"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="103"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -4024,7 +3910,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="126"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="127"/>
       <c r="C5" s="125"/>
       <c r="D5" s="125"/>
@@ -4037,7 +3923,7 @@
       <c r="K5" s="125"/>
       <c r="L5" s="128"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="127"/>
       <c r="C6" s="125"/>
       <c r="D6" s="125"/>
@@ -4050,10 +3936,10 @@
       <c r="K6" s="125"/>
       <c r="L6" s="128"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="127"/>
       <c r="C7" s="137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="137"/>
       <c r="E7" s="148"/>
@@ -4065,7 +3951,7 @@
       <c r="K7" s="125"/>
       <c r="L7" s="128"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="127"/>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
@@ -4078,7 +3964,7 @@
       <c r="K8" s="125"/>
       <c r="L8" s="128"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="127"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -4091,7 +3977,7 @@
       <c r="K9" s="125"/>
       <c r="L9" s="128"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="127"/>
       <c r="C10" s="125"/>
       <c r="D10" s="125"/>
@@ -4104,7 +3990,7 @@
       <c r="K10" s="125"/>
       <c r="L10" s="128"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="127"/>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -4117,7 +4003,7 @@
       <c r="K11" s="125"/>
       <c r="L11" s="128"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="127"/>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -4130,7 +4016,7 @@
       <c r="K12" s="125"/>
       <c r="L12" s="128"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="127"/>
       <c r="C13" s="125"/>
       <c r="D13" s="125"/>
@@ -4143,7 +4029,7 @@
       <c r="K13" s="125"/>
       <c r="L13" s="128"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="127"/>
       <c r="C14" s="125"/>
       <c r="D14" s="125"/>
@@ -4156,7 +4042,7 @@
       <c r="K14" s="125"/>
       <c r="L14" s="128"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="127"/>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
@@ -4169,7 +4055,7 @@
       <c r="K15" s="125"/>
       <c r="L15" s="128"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="127"/>
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
@@ -4182,7 +4068,7 @@
       <c r="K16" s="125"/>
       <c r="L16" s="128"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="127"/>
       <c r="C17" s="125"/>
       <c r="D17" s="125"/>
@@ -4195,7 +4081,7 @@
       <c r="K17" s="125"/>
       <c r="L17" s="128"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="127"/>
       <c r="C18" s="125"/>
       <c r="D18" s="125"/>
@@ -4203,7 +4089,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="148"/>
       <c r="H18" s="125"/>
@@ -4212,7 +4098,7 @@
       <c r="K18" s="125"/>
       <c r="L18" s="128"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="127"/>
       <c r="C19" s="125"/>
       <c r="D19" s="125"/>
@@ -4225,7 +4111,7 @@
       <c r="K19" s="125"/>
       <c r="L19" s="128"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="127"/>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
@@ -4238,7 +4124,7 @@
       <c r="K20" s="125"/>
       <c r="L20" s="128"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="127"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
@@ -4251,10 +4137,10 @@
       <c r="K21" s="125"/>
       <c r="L21" s="128"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="127"/>
       <c r="C22" s="148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
@@ -4266,10 +4152,10 @@
       <c r="K22" s="125"/>
       <c r="L22" s="128"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="127"/>
       <c r="C23" s="137" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="137"/>
       <c r="E23" s="148"/>
@@ -4281,7 +4167,7 @@
       <c r="K23" s="125"/>
       <c r="L23" s="128"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="127"/>
       <c r="C24" s="125"/>
       <c r="D24" s="125"/>
@@ -4294,7 +4180,7 @@
       <c r="K24" s="125"/>
       <c r="L24" s="128"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="127"/>
       <c r="C25" s="125"/>
       <c r="D25" s="125"/>
@@ -4307,7 +4193,7 @@
       <c r="K25" s="125"/>
       <c r="L25" s="128"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="127"/>
       <c r="C26" s="125"/>
       <c r="D26" s="125"/>
@@ -4320,7 +4206,7 @@
       <c r="K26" s="125"/>
       <c r="L26" s="128"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="127"/>
       <c r="C27" s="125"/>
       <c r="D27" s="125"/>
@@ -4333,7 +4219,7 @@
       <c r="K27" s="125"/>
       <c r="L27" s="128"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="127"/>
       <c r="C28" s="125"/>
       <c r="D28" s="125"/>
@@ -4346,7 +4232,7 @@
       <c r="K28" s="125"/>
       <c r="L28" s="128"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="127"/>
       <c r="C29" s="125"/>
       <c r="D29" s="125"/>
@@ -4359,7 +4245,7 @@
       <c r="K29" s="125"/>
       <c r="L29" s="128"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="127"/>
       <c r="C30" s="125"/>
       <c r="D30" s="125"/>
@@ -4372,7 +4258,7 @@
       <c r="K30" s="125"/>
       <c r="L30" s="128"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="127"/>
       <c r="C31" s="125"/>
       <c r="D31" s="125"/>
@@ -4385,7 +4271,7 @@
       <c r="K31" s="125"/>
       <c r="L31" s="128"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="127"/>
       <c r="C32" s="125"/>
       <c r="D32" s="125"/>
@@ -4398,7 +4284,7 @@
       <c r="K32" s="125"/>
       <c r="L32" s="128"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="127"/>
       <c r="C33" s="125"/>
       <c r="D33" s="125"/>
@@ -4411,7 +4297,7 @@
       <c r="K33" s="125"/>
       <c r="L33" s="128"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="127"/>
       <c r="C34" s="125"/>
       <c r="D34" s="125"/>
@@ -4424,7 +4310,7 @@
       <c r="K34" s="125"/>
       <c r="L34" s="128"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="127"/>
       <c r="C35" s="125"/>
       <c r="D35" s="125"/>
@@ -4437,7 +4323,7 @@
       <c r="K35" s="125"/>
       <c r="L35" s="128"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="127"/>
       <c r="C36" s="125"/>
       <c r="D36" s="125"/>
@@ -4450,7 +4336,7 @@
       <c r="K36" s="125"/>
       <c r="L36" s="128"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="127"/>
       <c r="C37" s="125"/>
       <c r="D37" s="125"/>
@@ -4463,7 +4349,7 @@
       <c r="K37" s="125"/>
       <c r="L37" s="128"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="127"/>
       <c r="C38" s="125"/>
       <c r="D38" s="125"/>
@@ -4476,7 +4362,7 @@
       <c r="K38" s="125"/>
       <c r="L38" s="128"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="127"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
@@ -4489,7 +4375,7 @@
       <c r="K39" s="125"/>
       <c r="L39" s="128"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="127"/>
       <c r="C40" s="125"/>
       <c r="D40" s="125"/>
@@ -4502,7 +4388,7 @@
       <c r="K40" s="125"/>
       <c r="L40" s="128"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="127"/>
       <c r="C41" s="125"/>
       <c r="D41" s="125"/>
@@ -4515,7 +4401,7 @@
       <c r="K41" s="125"/>
       <c r="L41" s="128"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="127"/>
       <c r="C42" s="125"/>
       <c r="D42" s="125"/>
@@ -4528,7 +4414,7 @@
       <c r="K42" s="125"/>
       <c r="L42" s="128"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="127"/>
       <c r="C43" s="125"/>
       <c r="D43" s="125"/>
@@ -4541,7 +4427,7 @@
       <c r="K43" s="125"/>
       <c r="L43" s="128"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="127"/>
       <c r="C44" s="125"/>
       <c r="D44" s="125"/>
@@ -4554,7 +4440,7 @@
       <c r="K44" s="125"/>
       <c r="L44" s="128"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="127"/>
       <c r="C45" s="125"/>
       <c r="D45" s="125"/>
@@ -4567,7 +4453,7 @@
       <c r="K45" s="125"/>
       <c r="L45" s="128"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="127"/>
       <c r="C46" s="125"/>
       <c r="D46" s="125"/>
@@ -4580,7 +4466,7 @@
       <c r="K46" s="125"/>
       <c r="L46" s="128"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="127"/>
       <c r="C47" s="125"/>
       <c r="D47" s="125"/>
@@ -4593,7 +4479,7 @@
       <c r="K47" s="125"/>
       <c r="L47" s="128"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="127"/>
       <c r="C48" s="125"/>
       <c r="D48" s="125"/>
@@ -4606,7 +4492,7 @@
       <c r="K48" s="125"/>
       <c r="L48" s="128"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="127"/>
       <c r="C49" s="125"/>
       <c r="D49" s="125"/>
@@ -4619,7 +4505,7 @@
       <c r="K49" s="125"/>
       <c r="L49" s="128"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="127"/>
       <c r="C50" s="125"/>
       <c r="D50" s="125"/>
@@ -4632,7 +4518,7 @@
       <c r="K50" s="125"/>
       <c r="L50" s="128"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="127"/>
       <c r="C51" s="125"/>
       <c r="D51" s="125"/>
@@ -4645,7 +4531,7 @@
       <c r="K51" s="125"/>
       <c r="L51" s="128"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="127"/>
       <c r="C52" s="125"/>
       <c r="D52" s="125"/>
@@ -4658,7 +4544,7 @@
       <c r="K52" s="125"/>
       <c r="L52" s="128"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="127"/>
       <c r="C53" s="125"/>
       <c r="D53" s="125"/>
@@ -4671,7 +4557,7 @@
       <c r="K53" s="125"/>
       <c r="L53" s="128"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="127"/>
       <c r="C54" s="125"/>
       <c r="D54" s="125"/>
@@ -4679,7 +4565,7 @@
         <v>1049</v>
       </c>
       <c r="F54" s="148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" s="148"/>
       <c r="H54" s="125"/>
@@ -4688,7 +4574,7 @@
       <c r="K54" s="125"/>
       <c r="L54" s="128"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="127"/>
       <c r="C55" s="125"/>
       <c r="D55" s="125"/>
@@ -4701,10 +4587,10 @@
       <c r="K55" s="125"/>
       <c r="L55" s="128"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="127"/>
       <c r="C56" s="148" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56" s="125"/>
       <c r="E56" s="125"/>
@@ -4716,10 +4602,10 @@
       <c r="K56" s="125"/>
       <c r="L56" s="128"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="127"/>
       <c r="C57" s="148" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="148"/>
       <c r="E57" s="125"/>
@@ -4731,10 +4617,10 @@
       <c r="K57" s="125"/>
       <c r="L57" s="128"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="127"/>
       <c r="C58" s="148" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="148"/>
       <c r="E58" s="125"/>
@@ -4746,7 +4632,7 @@
       <c r="K58" s="125"/>
       <c r="L58" s="128"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="127"/>
       <c r="C59" s="125"/>
       <c r="D59" s="125"/>
@@ -4759,7 +4645,7 @@
       <c r="K59" s="125"/>
       <c r="L59" s="128"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="127"/>
       <c r="C60" s="125"/>
       <c r="D60" s="125"/>
@@ -4772,7 +4658,7 @@
       <c r="K60" s="125"/>
       <c r="L60" s="128"/>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="127"/>
       <c r="C61" s="125"/>
       <c r="D61" s="125"/>
@@ -4785,7 +4671,7 @@
       <c r="K61" s="125"/>
       <c r="L61" s="128"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="127"/>
       <c r="C62" s="125"/>
       <c r="D62" s="125"/>
@@ -4798,7 +4684,7 @@
       <c r="K62" s="125"/>
       <c r="L62" s="128"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="127"/>
       <c r="C63" s="125"/>
       <c r="D63" s="125"/>
@@ -4811,7 +4697,7 @@
       <c r="K63" s="125"/>
       <c r="L63" s="128"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="127"/>
       <c r="C64" s="125"/>
       <c r="D64" s="125"/>
@@ -4828,7 +4714,7 @@
       <c r="K64" s="125"/>
       <c r="L64" s="128"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="127"/>
       <c r="C65" s="125"/>
       <c r="D65" s="125"/>
@@ -4841,7 +4727,7 @@
       <c r="K65" s="125"/>
       <c r="L65" s="128"/>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="127"/>
       <c r="C66" s="125"/>
       <c r="D66" s="125"/>
@@ -4854,7 +4740,7 @@
       <c r="K66" s="125"/>
       <c r="L66" s="128"/>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="127"/>
       <c r="C67" s="125"/>
       <c r="D67" s="125"/>
@@ -4867,7 +4753,7 @@
       <c r="K67" s="125"/>
       <c r="L67" s="128"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="127"/>
       <c r="C68" s="125"/>
       <c r="D68" s="125"/>
@@ -4880,7 +4766,7 @@
       <c r="K68" s="125"/>
       <c r="L68" s="128"/>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="127"/>
       <c r="C69" s="125"/>
       <c r="D69" s="125"/>
@@ -4893,7 +4779,7 @@
       <c r="K69" s="125"/>
       <c r="L69" s="128"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="127"/>
       <c r="C70" s="125"/>
       <c r="D70" s="125"/>
@@ -4906,10 +4792,10 @@
       <c r="K70" s="125"/>
       <c r="L70" s="128"/>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="127"/>
       <c r="C71" s="148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D71" s="148"/>
       <c r="E71" s="125"/>
@@ -4921,10 +4807,10 @@
       <c r="K71" s="125"/>
       <c r="L71" s="128"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="127"/>
       <c r="C72" s="148" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D72" s="148"/>
       <c r="E72" s="125"/>
@@ -4936,7 +4822,7 @@
       <c r="K72" s="125"/>
       <c r="L72" s="128"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="127"/>
       <c r="C73" s="125"/>
       <c r="D73" s="125"/>
@@ -4949,7 +4835,7 @@
       <c r="K73" s="125"/>
       <c r="L73" s="128"/>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="127"/>
       <c r="C74" s="125"/>
       <c r="D74" s="125"/>
@@ -4957,7 +4843,7 @@
         <v>15</v>
       </c>
       <c r="F74" s="148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G74" s="125"/>
       <c r="H74" s="125"/>
@@ -4966,7 +4852,7 @@
       <c r="K74" s="125"/>
       <c r="L74" s="128"/>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="127"/>
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
@@ -4979,7 +4865,7 @@
       <c r="K75" s="125"/>
       <c r="L75" s="128"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="127"/>
       <c r="C76" s="125"/>
       <c r="D76" s="125"/>
@@ -4995,10 +4881,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_space_heater_network_gas.converter.xlsx
+++ b/nodes_source_analyses/households/households_space_heater_network_gas.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9335B7F0-9853-6B44-B909-2BAAC2076A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t>Source</t>
   </si>
@@ -478,16 +485,19 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -646,6 +656,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,6 +664,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,6 +672,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,6 +680,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,6 +688,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,17 +696,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -705,7 +723,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1272,7 +1297,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1536,6 +1561,7 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1798,6 +1824,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1819,7 +1848,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1857,7 +1892,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1895,7 +1936,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1932,7 +1979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2391,13 +2444,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
@@ -2405,24 +2458,24 @@
     <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -2431,7 +2484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>65</v>
@@ -2440,7 +2493,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2449,29 +2502,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="88" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="90" t="s">
         <v>67</v>
@@ -2480,33 +2533,33 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="90"/>
       <c r="C12" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="90" t="s">
         <v>72</v>
@@ -2515,49 +2568,49 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>80</v>
@@ -2570,17 +2623,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
@@ -2595,13 +2648,13 @@
     <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="150" t="s">
         <v>122</v>
       </c>
@@ -2611,7 +2664,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="153"/>
       <c r="C3" s="154"/>
       <c r="D3" s="154"/>
@@ -2619,7 +2672,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="38" customHeight="1">
       <c r="B4" s="156"/>
       <c r="C4" s="157"/>
       <c r="D4" s="157"/>
@@ -2627,10 +2680,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2641,7 +2694,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B7" s="103"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2662,7 +2715,7 @@
       </c>
       <c r="J7" s="109"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2673,7 +2726,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
         <v>111</v>
@@ -2686,7 +2739,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="130" t="s">
         <v>91</v>
@@ -2706,7 +2759,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>32</v>
@@ -2726,7 +2779,7 @@
       <c r="J11" s="110"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -2746,7 +2799,7 @@
       <c r="J12" s="110"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
@@ -2766,7 +2819,7 @@
       <c r="J13" s="110"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -2786,7 +2839,7 @@
       <c r="J14" s="110"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>38</v>
@@ -2806,7 +2859,7 @@
       <c r="J15" s="110"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>39</v>
@@ -2827,7 +2880,7 @@
       </c>
       <c r="J16" s="110"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>40</v>
@@ -2849,7 +2902,7 @@
       </c>
       <c r="J17" s="110"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="37"/>
       <c r="C18" s="84"/>
       <c r="D18" s="106"/>
@@ -2860,7 +2913,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="110"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
         <v>81</v>
@@ -2873,7 +2926,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="110"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>41</v>
@@ -2895,7 +2948,7 @@
       </c>
       <c r="J20" s="110"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>42</v>
@@ -2916,7 +2969,7 @@
       </c>
       <c r="J21" s="110"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -2937,7 +2990,7 @@
       </c>
       <c r="J22" s="110"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>43</v>
@@ -2958,7 +3011,7 @@
       </c>
       <c r="J23" s="110"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>44</v>
@@ -2980,7 +3033,7 @@
       </c>
       <c r="J24" s="110"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>45</v>
@@ -3001,7 +3054,7 @@
       </c>
       <c r="J25" s="110"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>46</v>
@@ -3022,7 +3075,7 @@
       </c>
       <c r="J26" s="110"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3031,19 +3084,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="43">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
-        <v>52</v>
+      <c r="I27" s="159" t="s">
+        <v>123</v>
       </c>
       <c r="J27" s="110"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>36</v>
@@ -3062,7 +3115,7 @@
       </c>
       <c r="J28" s="110"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="37"/>
       <c r="C29" s="33"/>
       <c r="D29" s="19"/>
@@ -3073,7 +3126,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="110"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="14" t="s">
         <v>7</v>
@@ -3086,7 +3139,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="110"/>
     </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>35</v>
@@ -3107,7 +3160,7 @@
       </c>
       <c r="J31" s="110"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>47</v>
@@ -3128,7 +3181,7 @@
       </c>
       <c r="J32" s="110"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>48</v>
@@ -3150,7 +3203,7 @@
       </c>
       <c r="J33" s="110"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>33</v>
@@ -3169,7 +3222,7 @@
       </c>
       <c r="J34" s="110"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="45" t="s">
         <v>59</v>
@@ -3186,7 +3239,7 @@
       </c>
       <c r="J35" s="110"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>60</v>
@@ -3203,7 +3256,7 @@
       </c>
       <c r="J36" s="110"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>62</v>
@@ -3220,7 +3273,7 @@
       </c>
       <c r="J37" s="110"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>63</v>
@@ -3237,7 +3290,7 @@
       </c>
       <c r="J38" s="110"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>61</v>
@@ -3254,7 +3307,7 @@
       </c>
       <c r="J39" s="110"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -3275,17 +3328,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.42578125" style="68" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="68" customWidth="1"/>
@@ -3304,8 +3357,8 @@
     <col min="16" max="16384" width="10.7109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -3321,7 +3374,7 @@
       <c r="N2" s="72"/>
       <c r="O2" s="71"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="113" t="s">
         <v>83</v>
@@ -3351,7 +3404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -3367,7 +3420,7 @@
       <c r="N4" s="112"/>
       <c r="O4" s="134"/>
     </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="73"/>
       <c r="C5" s="29" t="s">
         <v>82</v>
@@ -3385,7 +3438,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="67"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="73"/>
       <c r="C6" s="136" t="s">
         <v>97</v>
@@ -3407,7 +3460,7 @@
       <c r="N6" s="75"/>
       <c r="O6" s="67"/>
     </row>
-    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="17" thickBot="1">
       <c r="B7" s="73"/>
       <c r="C7" s="133" t="s">
         <v>93</v>
@@ -3433,7 +3486,7 @@
       <c r="N7" s="75"/>
       <c r="O7" s="87"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8" s="73"/>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -3449,7 +3502,7 @@
       <c r="N8" s="81"/>
       <c r="O8" s="114"/>
     </row>
-    <row r="9" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="17" thickBot="1">
       <c r="B9" s="73"/>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3467,7 +3520,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="17" thickBot="1">
       <c r="B10" s="73"/>
       <c r="C10" s="85" t="s">
         <v>5</v>
@@ -3493,7 +3546,7 @@
       <c r="N10" s="82"/>
       <c r="O10" s="119"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="73"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3511,7 +3564,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="17" thickBot="1">
       <c r="B12" s="73"/>
       <c r="C12" s="13" t="s">
         <v>84</v>
@@ -3531,7 +3584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="17" thickBot="1">
       <c r="B13" s="73"/>
       <c r="C13" s="111" t="s">
         <v>85</v>
@@ -3559,7 +3612,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="17" thickBot="1">
       <c r="B14" s="73"/>
       <c r="C14" s="118" t="s">
         <v>86</v>
@@ -3587,7 +3640,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O12" r:id="rId1"/>
+    <hyperlink ref="O12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3595,8 +3648,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K15"/>
@@ -3605,7 +3658,7 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
@@ -3619,8 +3672,8 @@
     <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3632,7 +3685,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>21</v>
@@ -3646,7 +3699,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3658,7 +3711,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>28</v>
@@ -3686,7 +3739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3698,7 +3751,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="51"/>
       <c r="C7" s="59"/>
       <c r="D7" s="64"/>
@@ -3712,7 +3765,7 @@
       <c r="J7" s="62"/>
       <c r="K7" s="59"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="17">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
         <v>95</v>
@@ -3732,7 +3785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="17">
       <c r="B9" s="51"/>
       <c r="C9" s="60" t="s">
         <v>87</v>
@@ -3752,7 +3805,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="64"/>
@@ -3764,7 +3817,7 @@
       <c r="J10" s="62"/>
       <c r="K10" s="59"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="17">
       <c r="B11" s="51"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -3784,7 +3837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="51"/>
       <c r="C12" s="60" t="s">
         <v>94</v>
@@ -3798,7 +3851,7 @@
       <c r="J12" s="62"/>
       <c r="K12" s="59"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="51"/>
       <c r="C13" s="60"/>
       <c r="D13" s="64"/>
@@ -3809,7 +3862,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="63"/>
     </row>
-    <row r="14" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="34">
       <c r="B14" s="51"/>
       <c r="C14" s="60"/>
       <c r="D14" s="64"/>
@@ -3833,7 +3886,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51"/>
       <c r="C15" s="142" t="s">
         <v>5</v>
@@ -3848,7 +3901,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K11" r:id="rId1"/>
+    <hyperlink ref="K11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3859,8 +3912,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="B2:L76"/>
@@ -3869,7 +3922,7 @@
       <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="122" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="122" customWidth="1"/>
@@ -3879,8 +3932,8 @@
     <col min="6" max="16384" width="10.7109375" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" ht="17" thickBot="1"/>
+    <row r="3" spans="2:12">
       <c r="B3" s="123"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3893,7 +3946,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="124"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="103"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
@@ -3910,7 +3963,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="126"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="127"/>
       <c r="C5" s="125"/>
       <c r="D5" s="125"/>
@@ -3923,7 +3976,7 @@
       <c r="K5" s="125"/>
       <c r="L5" s="128"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="127"/>
       <c r="C6" s="125"/>
       <c r="D6" s="125"/>
@@ -3936,7 +3989,7 @@
       <c r="K6" s="125"/>
       <c r="L6" s="128"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="127"/>
       <c r="C7" s="137" t="s">
         <v>99</v>
@@ -3951,7 +4004,7 @@
       <c r="K7" s="125"/>
       <c r="L7" s="128"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="127"/>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
@@ -3964,7 +4017,7 @@
       <c r="K8" s="125"/>
       <c r="L8" s="128"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="127"/>
       <c r="C9" s="125"/>
       <c r="D9" s="125"/>
@@ -3977,7 +4030,7 @@
       <c r="K9" s="125"/>
       <c r="L9" s="128"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="127"/>
       <c r="C10" s="125"/>
       <c r="D10" s="125"/>
@@ -3990,7 +4043,7 @@
       <c r="K10" s="125"/>
       <c r="L10" s="128"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="127"/>
       <c r="C11" s="125"/>
       <c r="D11" s="125"/>
@@ -4003,7 +4056,7 @@
       <c r="K11" s="125"/>
       <c r="L11" s="128"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="127"/>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -4016,7 +4069,7 @@
       <c r="K12" s="125"/>
       <c r="L12" s="128"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="B13" s="127"/>
       <c r="C13" s="125"/>
       <c r="D13" s="125"/>
@@ -4029,7 +4082,7 @@
       <c r="K13" s="125"/>
       <c r="L13" s="128"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="127"/>
       <c r="C14" s="125"/>
       <c r="D14" s="125"/>
@@ -4042,7 +4095,7 @@
       <c r="K14" s="125"/>
       <c r="L14" s="128"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="B15" s="127"/>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
@@ -4055,7 +4108,7 @@
       <c r="K15" s="125"/>
       <c r="L15" s="128"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="B16" s="127"/>
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
@@ -4068,7 +4121,7 @@
       <c r="K16" s="125"/>
       <c r="L16" s="128"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" s="127"/>
       <c r="C17" s="125"/>
       <c r="D17" s="125"/>
@@ -4081,7 +4134,7 @@
       <c r="K17" s="125"/>
       <c r="L17" s="128"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" s="127"/>
       <c r="C18" s="125"/>
       <c r="D18" s="125"/>
@@ -4098,7 +4151,7 @@
       <c r="K18" s="125"/>
       <c r="L18" s="128"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" s="127"/>
       <c r="C19" s="125"/>
       <c r="D19" s="125"/>
@@ -4111,7 +4164,7 @@
       <c r="K19" s="125"/>
       <c r="L19" s="128"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" s="127"/>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
@@ -4124,7 +4177,7 @@
       <c r="K20" s="125"/>
       <c r="L20" s="128"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" s="127"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
@@ -4137,7 +4190,7 @@
       <c r="K21" s="125"/>
       <c r="L21" s="128"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" s="127"/>
       <c r="C22" s="148" t="s">
         <v>119</v>
@@ -4152,7 +4205,7 @@
       <c r="K22" s="125"/>
       <c r="L22" s="128"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" s="127"/>
       <c r="C23" s="137" t="s">
         <v>104</v>
@@ -4167,7 +4220,7 @@
       <c r="K23" s="125"/>
       <c r="L23" s="128"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" s="127"/>
       <c r="C24" s="125"/>
       <c r="D24" s="125"/>
@@ -4180,7 +4233,7 @@
       <c r="K24" s="125"/>
       <c r="L24" s="128"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" s="127"/>
       <c r="C25" s="125"/>
       <c r="D25" s="125"/>
@@ -4193,7 +4246,7 @@
       <c r="K25" s="125"/>
       <c r="L25" s="128"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" s="127"/>
       <c r="C26" s="125"/>
       <c r="D26" s="125"/>
@@ -4206,7 +4259,7 @@
       <c r="K26" s="125"/>
       <c r="L26" s="128"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" s="127"/>
       <c r="C27" s="125"/>
       <c r="D27" s="125"/>
@@ -4219,7 +4272,7 @@
       <c r="K27" s="125"/>
       <c r="L27" s="128"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" s="127"/>
       <c r="C28" s="125"/>
       <c r="D28" s="125"/>
@@ -4232,7 +4285,7 @@
       <c r="K28" s="125"/>
       <c r="L28" s="128"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" s="127"/>
       <c r="C29" s="125"/>
       <c r="D29" s="125"/>
@@ -4245,7 +4298,7 @@
       <c r="K29" s="125"/>
       <c r="L29" s="128"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" s="127"/>
       <c r="C30" s="125"/>
       <c r="D30" s="125"/>
@@ -4258,7 +4311,7 @@
       <c r="K30" s="125"/>
       <c r="L30" s="128"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" s="127"/>
       <c r="C31" s="125"/>
       <c r="D31" s="125"/>
@@ -4271,7 +4324,7 @@
       <c r="K31" s="125"/>
       <c r="L31" s="128"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12">
       <c r="B32" s="127"/>
       <c r="C32" s="125"/>
       <c r="D32" s="125"/>
@@ -4284,7 +4337,7 @@
       <c r="K32" s="125"/>
       <c r="L32" s="128"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12">
       <c r="B33" s="127"/>
       <c r="C33" s="125"/>
       <c r="D33" s="125"/>
@@ -4297,7 +4350,7 @@
       <c r="K33" s="125"/>
       <c r="L33" s="128"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12">
       <c r="B34" s="127"/>
       <c r="C34" s="125"/>
       <c r="D34" s="125"/>
@@ -4310,7 +4363,7 @@
       <c r="K34" s="125"/>
       <c r="L34" s="128"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12">
       <c r="B35" s="127"/>
       <c r="C35" s="125"/>
       <c r="D35" s="125"/>
@@ -4323,7 +4376,7 @@
       <c r="K35" s="125"/>
       <c r="L35" s="128"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12">
       <c r="B36" s="127"/>
       <c r="C36" s="125"/>
       <c r="D36" s="125"/>
@@ -4336,7 +4389,7 @@
       <c r="K36" s="125"/>
       <c r="L36" s="128"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12">
       <c r="B37" s="127"/>
       <c r="C37" s="125"/>
       <c r="D37" s="125"/>
@@ -4349,7 +4402,7 @@
       <c r="K37" s="125"/>
       <c r="L37" s="128"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12">
       <c r="B38" s="127"/>
       <c r="C38" s="125"/>
       <c r="D38" s="125"/>
@@ -4362,7 +4415,7 @@
       <c r="K38" s="125"/>
       <c r="L38" s="128"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12">
       <c r="B39" s="127"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
@@ -4375,7 +4428,7 @@
       <c r="K39" s="125"/>
       <c r="L39" s="128"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12">
       <c r="B40" s="127"/>
       <c r="C40" s="125"/>
       <c r="D40" s="125"/>
@@ -4388,7 +4441,7 @@
       <c r="K40" s="125"/>
       <c r="L40" s="128"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12">
       <c r="B41" s="127"/>
       <c r="C41" s="125"/>
       <c r="D41" s="125"/>
@@ -4401,7 +4454,7 @@
       <c r="K41" s="125"/>
       <c r="L41" s="128"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12">
       <c r="B42" s="127"/>
       <c r="C42" s="125"/>
       <c r="D42" s="125"/>
@@ -4414,7 +4467,7 @@
       <c r="K42" s="125"/>
       <c r="L42" s="128"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12">
       <c r="B43" s="127"/>
       <c r="C43" s="125"/>
       <c r="D43" s="125"/>
@@ -4427,7 +4480,7 @@
       <c r="K43" s="125"/>
       <c r="L43" s="128"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12">
       <c r="B44" s="127"/>
       <c r="C44" s="125"/>
       <c r="D44" s="125"/>
@@ -4440,7 +4493,7 @@
       <c r="K44" s="125"/>
       <c r="L44" s="128"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12">
       <c r="B45" s="127"/>
       <c r="C45" s="125"/>
       <c r="D45" s="125"/>
@@ -4453,7 +4506,7 @@
       <c r="K45" s="125"/>
       <c r="L45" s="128"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12">
       <c r="B46" s="127"/>
       <c r="C46" s="125"/>
       <c r="D46" s="125"/>
@@ -4466,7 +4519,7 @@
       <c r="K46" s="125"/>
       <c r="L46" s="128"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12">
       <c r="B47" s="127"/>
       <c r="C47" s="125"/>
       <c r="D47" s="125"/>
@@ -4479,7 +4532,7 @@
       <c r="K47" s="125"/>
       <c r="L47" s="128"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12">
       <c r="B48" s="127"/>
       <c r="C48" s="125"/>
       <c r="D48" s="125"/>
@@ -4492,7 +4545,7 @@
       <c r="K48" s="125"/>
       <c r="L48" s="128"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12">
       <c r="B49" s="127"/>
       <c r="C49" s="125"/>
       <c r="D49" s="125"/>
@@ -4505,7 +4558,7 @@
       <c r="K49" s="125"/>
       <c r="L49" s="128"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12">
       <c r="B50" s="127"/>
       <c r="C50" s="125"/>
       <c r="D50" s="125"/>
@@ -4518,7 +4571,7 @@
       <c r="K50" s="125"/>
       <c r="L50" s="128"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12">
       <c r="B51" s="127"/>
       <c r="C51" s="125"/>
       <c r="D51" s="125"/>
@@ -4531,7 +4584,7 @@
       <c r="K51" s="125"/>
       <c r="L51" s="128"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12">
       <c r="B52" s="127"/>
       <c r="C52" s="125"/>
       <c r="D52" s="125"/>
@@ -4544,7 +4597,7 @@
       <c r="K52" s="125"/>
       <c r="L52" s="128"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12">
       <c r="B53" s="127"/>
       <c r="C53" s="125"/>
       <c r="D53" s="125"/>
@@ -4557,7 +4610,7 @@
       <c r="K53" s="125"/>
       <c r="L53" s="128"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12">
       <c r="B54" s="127"/>
       <c r="C54" s="125"/>
       <c r="D54" s="125"/>
@@ -4574,7 +4627,7 @@
       <c r="K54" s="125"/>
       <c r="L54" s="128"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12">
       <c r="B55" s="127"/>
       <c r="C55" s="125"/>
       <c r="D55" s="125"/>
@@ -4587,7 +4640,7 @@
       <c r="K55" s="125"/>
       <c r="L55" s="128"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12">
       <c r="B56" s="127"/>
       <c r="C56" s="148" t="s">
         <v>119</v>
@@ -4602,7 +4655,7 @@
       <c r="K56" s="125"/>
       <c r="L56" s="128"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12">
       <c r="B57" s="127"/>
       <c r="C57" s="148" t="s">
         <v>118</v>
@@ -4617,7 +4670,7 @@
       <c r="K57" s="125"/>
       <c r="L57" s="128"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12">
       <c r="B58" s="127"/>
       <c r="C58" s="148" t="s">
         <v>113</v>
@@ -4632,7 +4685,7 @@
       <c r="K58" s="125"/>
       <c r="L58" s="128"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12">
       <c r="B59" s="127"/>
       <c r="C59" s="125"/>
       <c r="D59" s="125"/>
@@ -4645,7 +4698,7 @@
       <c r="K59" s="125"/>
       <c r="L59" s="128"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12">
       <c r="B60" s="127"/>
       <c r="C60" s="125"/>
       <c r="D60" s="125"/>
@@ -4658,7 +4711,7 @@
       <c r="K60" s="125"/>
       <c r="L60" s="128"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12">
       <c r="B61" s="127"/>
       <c r="C61" s="125"/>
       <c r="D61" s="125"/>
@@ -4671,7 +4724,7 @@
       <c r="K61" s="125"/>
       <c r="L61" s="128"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12">
       <c r="B62" s="127"/>
       <c r="C62" s="125"/>
       <c r="D62" s="125"/>
@@ -4684,7 +4737,7 @@
       <c r="K62" s="125"/>
       <c r="L62" s="128"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12">
       <c r="B63" s="127"/>
       <c r="C63" s="125"/>
       <c r="D63" s="125"/>
@@ -4697,7 +4750,7 @@
       <c r="K63" s="125"/>
       <c r="L63" s="128"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12">
       <c r="B64" s="127"/>
       <c r="C64" s="125"/>
       <c r="D64" s="125"/>
@@ -4714,7 +4767,7 @@
       <c r="K64" s="125"/>
       <c r="L64" s="128"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12">
       <c r="B65" s="127"/>
       <c r="C65" s="125"/>
       <c r="D65" s="125"/>
@@ -4727,7 +4780,7 @@
       <c r="K65" s="125"/>
       <c r="L65" s="128"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12">
       <c r="B66" s="127"/>
       <c r="C66" s="125"/>
       <c r="D66" s="125"/>
@@ -4740,7 +4793,7 @@
       <c r="K66" s="125"/>
       <c r="L66" s="128"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12">
       <c r="B67" s="127"/>
       <c r="C67" s="125"/>
       <c r="D67" s="125"/>
@@ -4753,7 +4806,7 @@
       <c r="K67" s="125"/>
       <c r="L67" s="128"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12">
       <c r="B68" s="127"/>
       <c r="C68" s="125"/>
       <c r="D68" s="125"/>
@@ -4766,7 +4819,7 @@
       <c r="K68" s="125"/>
       <c r="L68" s="128"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12">
       <c r="B69" s="127"/>
       <c r="C69" s="125"/>
       <c r="D69" s="125"/>
@@ -4779,7 +4832,7 @@
       <c r="K69" s="125"/>
       <c r="L69" s="128"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12">
       <c r="B70" s="127"/>
       <c r="C70" s="125"/>
       <c r="D70" s="125"/>
@@ -4792,7 +4845,7 @@
       <c r="K70" s="125"/>
       <c r="L70" s="128"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12">
       <c r="B71" s="127"/>
       <c r="C71" s="148" t="s">
         <v>110</v>
@@ -4807,7 +4860,7 @@
       <c r="K71" s="125"/>
       <c r="L71" s="128"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12">
       <c r="B72" s="127"/>
       <c r="C72" s="148" t="s">
         <v>114</v>
@@ -4822,7 +4875,7 @@
       <c r="K72" s="125"/>
       <c r="L72" s="128"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12">
       <c r="B73" s="127"/>
       <c r="C73" s="125"/>
       <c r="D73" s="125"/>
@@ -4835,7 +4888,7 @@
       <c r="K73" s="125"/>
       <c r="L73" s="128"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12">
       <c r="B74" s="127"/>
       <c r="C74" s="125"/>
       <c r="D74" s="125"/>
@@ -4852,7 +4905,7 @@
       <c r="K74" s="125"/>
       <c r="L74" s="128"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12">
       <c r="B75" s="127"/>
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
@@ -4865,7 +4918,7 @@
       <c r="K75" s="125"/>
       <c r="L75" s="128"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12">
       <c r="B76" s="127"/>
       <c r="C76" s="125"/>
       <c r="D76" s="125"/>
